--- a/Analysis/csr50.xlsx
+++ b/Analysis/csr50.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="log1360429155827" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -1213,11 +1213,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="126715392"/>
-        <c:axId val="126713856"/>
+        <c:axId val="84277888"/>
+        <c:axId val="84672896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="126715392"/>
+        <c:axId val="84277888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1227,12 +1227,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126713856"/>
+        <c:crossAx val="84672896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="126713856"/>
+        <c:axId val="84672896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1243,7 +1243,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126715392"/>
+        <c:crossAx val="84277888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1589,8 +1589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2983,175 +2983,175 @@
         <v>8</v>
       </c>
       <c r="B26">
-        <f>A17-A5</f>
+        <f t="shared" ref="B26:AR26" si="2">A17-A5</f>
         <v>1029</v>
       </c>
       <c r="C26">
-        <f>B17-B5</f>
+        <f t="shared" si="2"/>
         <v>1970</v>
       </c>
       <c r="D26">
-        <f>C17-C5</f>
+        <f t="shared" si="2"/>
         <v>1011</v>
       </c>
       <c r="E26">
-        <f>D17-D5</f>
+        <f t="shared" si="2"/>
         <v>61</v>
       </c>
       <c r="F26">
-        <f>E17-E5</f>
+        <f t="shared" si="2"/>
         <v>1115</v>
       </c>
       <c r="G26">
-        <f>F17-F5</f>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="H26">
-        <f>G17-G5</f>
+        <f t="shared" si="2"/>
         <v>1877</v>
       </c>
       <c r="I26">
-        <f>H17-H5</f>
+        <f t="shared" si="2"/>
         <v>913</v>
       </c>
       <c r="J26">
-        <f>I17-I5</f>
+        <f t="shared" si="2"/>
         <v>-75</v>
       </c>
       <c r="K26">
-        <f>J17-J5</f>
+        <f t="shared" si="2"/>
         <v>1195</v>
       </c>
       <c r="L26">
-        <f>K17-K5</f>
+        <f t="shared" si="2"/>
         <v>202</v>
       </c>
       <c r="M26">
-        <f>L17-L5</f>
+        <f t="shared" si="2"/>
         <v>1927</v>
       </c>
       <c r="N26">
-        <f>M17-M5</f>
+        <f t="shared" si="2"/>
         <v>957</v>
       </c>
       <c r="O26">
-        <f>N17-N5</f>
+        <f t="shared" si="2"/>
         <v>-24</v>
       </c>
       <c r="P26">
-        <f>O17-O5</f>
+        <f t="shared" si="2"/>
         <v>1321</v>
       </c>
       <c r="Q26">
-        <f>P17-P5</f>
+        <f t="shared" si="2"/>
         <v>341</v>
       </c>
       <c r="R26">
-        <f>Q17-Q5</f>
+        <f t="shared" si="2"/>
         <v>1674</v>
       </c>
       <c r="S26">
-        <f>R17-R5</f>
+        <f t="shared" si="2"/>
         <v>906</v>
       </c>
       <c r="T26">
-        <f>S17-S5</f>
+        <f t="shared" si="2"/>
         <v>-100</v>
       </c>
       <c r="U26">
-        <f>T17-T5</f>
+        <f t="shared" si="2"/>
         <v>1724</v>
       </c>
       <c r="V26">
-        <f>U17-U5</f>
+        <f t="shared" si="2"/>
         <v>758</v>
       </c>
       <c r="W26">
-        <f>V17-V5</f>
+        <f t="shared" si="2"/>
         <v>-212</v>
       </c>
       <c r="X26">
-        <f>W17-W5</f>
+        <f t="shared" si="2"/>
         <v>774</v>
       </c>
       <c r="Y26">
-        <f>X17-X5</f>
+        <f t="shared" si="2"/>
         <v>-204</v>
       </c>
       <c r="Z26">
-        <f>Y17-Y5</f>
+        <f t="shared" si="2"/>
         <v>1885</v>
       </c>
       <c r="AA26">
-        <f>Z17-Z5</f>
+        <f t="shared" si="2"/>
         <v>914</v>
       </c>
       <c r="AB26">
-        <f>AA17-AA5</f>
+        <f t="shared" si="2"/>
         <v>-69</v>
       </c>
       <c r="AC26">
-        <f>AB17-AB5</f>
+        <f t="shared" si="2"/>
         <v>934</v>
       </c>
       <c r="AD26">
-        <f>AC17-AC5</f>
+        <f t="shared" si="2"/>
         <v>-22</v>
       </c>
       <c r="AE26">
-        <f>AD17-AD5</f>
+        <f t="shared" si="2"/>
         <v>2054</v>
       </c>
       <c r="AF26">
-        <f>AE17-AE5</f>
+        <f t="shared" si="2"/>
         <v>1092</v>
       </c>
       <c r="AG26">
-        <f>AF17-AF5</f>
+        <f t="shared" si="2"/>
         <v>112</v>
       </c>
       <c r="AH26">
-        <f>AG17-AG5</f>
+        <f t="shared" si="2"/>
         <v>1098</v>
       </c>
       <c r="AI26">
-        <f>AH17-AH5</f>
+        <f t="shared" si="2"/>
         <v>152</v>
       </c>
       <c r="AJ26">
-        <f>AI17-AI5</f>
+        <f t="shared" si="2"/>
         <v>2228</v>
       </c>
       <c r="AK26">
-        <f>AJ17-AJ5</f>
+        <f t="shared" si="2"/>
         <v>1267</v>
       </c>
       <c r="AL26">
-        <f>AK17-AK5</f>
+        <f t="shared" si="2"/>
         <v>302</v>
       </c>
       <c r="AM26">
-        <f>AL17-AL5</f>
+        <f t="shared" si="2"/>
         <v>1289</v>
       </c>
       <c r="AN26">
-        <f>AM17-AM5</f>
+        <f t="shared" si="2"/>
         <v>635</v>
       </c>
       <c r="AO26">
-        <f>AN17-AN5</f>
+        <f t="shared" si="2"/>
         <v>2366</v>
       </c>
       <c r="AP26">
-        <f>AO17-AO5</f>
+        <f t="shared" si="2"/>
         <v>1411</v>
       </c>
       <c r="AQ26">
-        <f>AP17-AP5</f>
+        <f t="shared" si="2"/>
         <v>438</v>
       </c>
       <c r="AR26">
-        <f>AQ17-AQ5</f>
+        <f t="shared" si="2"/>
         <v>1408</v>
       </c>
     </row>
@@ -3160,175 +3160,175 @@
         <v>9</v>
       </c>
       <c r="B27">
-        <f>A9-A15</f>
+        <f t="shared" ref="B27:AR27" si="3">A9-A15</f>
         <v>2035</v>
       </c>
       <c r="C27">
-        <f>B9-B15</f>
+        <f t="shared" si="3"/>
         <v>1064</v>
       </c>
       <c r="D27">
-        <f>C9-C15</f>
+        <f t="shared" si="3"/>
         <v>2473</v>
       </c>
       <c r="E27">
-        <f>D9-D15</f>
+        <f t="shared" si="3"/>
         <v>1403</v>
       </c>
       <c r="F27">
-        <f>E9-E15</f>
+        <f t="shared" si="3"/>
         <v>393</v>
       </c>
       <c r="G27">
-        <f>F9-F15</f>
+        <f t="shared" si="3"/>
         <v>1928</v>
       </c>
       <c r="H27">
-        <f>G9-G15</f>
+        <f t="shared" si="3"/>
         <v>918</v>
       </c>
       <c r="I27">
-        <f>H9-H15</f>
+        <f t="shared" si="3"/>
         <v>2512</v>
       </c>
       <c r="J27">
-        <f>I9-I15</f>
+        <f t="shared" si="3"/>
         <v>1508</v>
       </c>
       <c r="K27">
-        <f>J9-J15</f>
+        <f t="shared" si="3"/>
         <v>492</v>
       </c>
       <c r="L27">
-        <f>K9-K15</f>
+        <f t="shared" si="3"/>
         <v>1870</v>
       </c>
       <c r="M27">
-        <f>L9-L15</f>
+        <f t="shared" si="3"/>
         <v>843</v>
       </c>
       <c r="N27">
-        <f>M9-M15</f>
+        <f t="shared" si="3"/>
         <v>2501</v>
       </c>
       <c r="O27">
-        <f>N9-N15</f>
+        <f t="shared" si="3"/>
         <v>1482</v>
       </c>
       <c r="P27">
-        <f>O9-O15</f>
+        <f t="shared" si="3"/>
         <v>465</v>
       </c>
       <c r="Q27">
-        <f>P9-P15</f>
+        <f t="shared" si="3"/>
         <v>1748</v>
       </c>
       <c r="R27">
-        <f>Q9-Q15</f>
+        <f t="shared" si="3"/>
         <v>406</v>
       </c>
       <c r="S27">
-        <f>R9-R15</f>
+        <f t="shared" si="3"/>
         <v>2364</v>
       </c>
       <c r="T27">
-        <f>S9-S15</f>
+        <f t="shared" si="3"/>
         <v>1363</v>
       </c>
       <c r="U27">
-        <f>T9-T15</f>
+        <f t="shared" si="3"/>
         <v>2549</v>
       </c>
       <c r="V27">
-        <f>U9-U15</f>
+        <f t="shared" si="3"/>
         <v>1514</v>
       </c>
       <c r="W27">
-        <f>V9-V15</f>
+        <f t="shared" si="3"/>
         <v>499</v>
       </c>
       <c r="X27">
-        <f>W9-W15</f>
+        <f t="shared" si="3"/>
         <v>2266</v>
       </c>
       <c r="Y27">
-        <f>X9-X15</f>
+        <f t="shared" si="3"/>
         <v>1218</v>
       </c>
       <c r="Z27">
-        <f>Y9-Y15</f>
+        <f t="shared" si="3"/>
         <v>2570</v>
       </c>
       <c r="AA27">
-        <f>Z9-Z15</f>
+        <f t="shared" si="3"/>
         <v>1539</v>
       </c>
       <c r="AB27">
-        <f>AA9-AA15</f>
+        <f t="shared" si="3"/>
         <v>518</v>
       </c>
       <c r="AC27">
-        <f>AB9-AB15</f>
+        <f t="shared" si="3"/>
         <v>2093</v>
       </c>
       <c r="AD27">
-        <f>AC9-AC15</f>
+        <f t="shared" si="3"/>
         <v>1049</v>
       </c>
       <c r="AE27">
-        <f>AD9-AD15</f>
+        <f t="shared" si="3"/>
         <v>2478</v>
       </c>
       <c r="AF27">
-        <f>AE9-AE15</f>
+        <f t="shared" si="3"/>
         <v>1446</v>
       </c>
       <c r="AG27">
-        <f>AF9-AF15</f>
+        <f t="shared" si="3"/>
         <v>437</v>
       </c>
       <c r="AH27">
-        <f>AG9-AG15</f>
+        <f t="shared" si="3"/>
         <v>1929</v>
       </c>
       <c r="AI27">
-        <f>AH9-AH15</f>
+        <f t="shared" si="3"/>
         <v>894</v>
       </c>
       <c r="AJ27">
-        <f>AI9-AI15</f>
+        <f t="shared" si="3"/>
         <v>2487</v>
       </c>
       <c r="AK27">
-        <f>AJ9-AJ15</f>
+        <f t="shared" si="3"/>
         <v>1465</v>
       </c>
       <c r="AL27">
-        <f>AK9-AK15</f>
+        <f t="shared" si="3"/>
         <v>428</v>
       </c>
       <c r="AM27">
-        <f>AL9-AL15</f>
+        <f t="shared" si="3"/>
         <v>1716</v>
       </c>
       <c r="AN27">
-        <f>AM9-AM15</f>
+        <f t="shared" si="3"/>
         <v>722</v>
       </c>
       <c r="AO27">
-        <f>AN9-AN15</f>
+        <f t="shared" si="3"/>
         <v>2527</v>
       </c>
       <c r="AP27">
-        <f>AO9-AO15</f>
+        <f t="shared" si="3"/>
         <v>1481</v>
       </c>
       <c r="AQ27">
-        <f>AP9-AP15</f>
+        <f t="shared" si="3"/>
         <v>476</v>
       </c>
       <c r="AR27">
-        <f>AQ9-AQ15</f>
+        <f t="shared" si="3"/>
         <v>1631</v>
       </c>
     </row>
